--- a/assets/ESP32-wroom-32-pinout.xlsx
+++ b/assets/ESP32-wroom-32-pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\github\Components\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E927D37-D6B5-4564-B1D4-716E0B28BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9D6D6-4217-4257-80FD-CFA1375B99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A48B1AA1-19B1-4E85-B700-14E81BEF0614}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A48B1AA1-19B1-4E85-B700-14E81BEF0614}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-Module" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1105,215 +1105,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1359,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="223848" y="1350380"/>
-          <a:ext cx="7724537" cy="5980253"/>
+          <a:off x="214125" y="1333500"/>
+          <a:ext cx="7405365" cy="5905500"/>
           <a:chOff x="1166625" y="190500"/>
           <a:chExt cx="7405365" cy="5905500"/>
         </a:xfrm>
@@ -3962,8 +3953,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1986987" y="192911"/>
-          <a:ext cx="4172674" cy="6173165"/>
+          <a:off x="1905000" y="190500"/>
+          <a:ext cx="4000500" cy="6096000"/>
           <a:chOff x="1905000" y="190500"/>
           <a:chExt cx="4000500" cy="6096000"/>
         </a:xfrm>
@@ -4632,7 +4623,7 @@
   </sheetPr>
   <dimension ref="A2:AJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -4649,50 +4640,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
     </row>
     <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4720,15 +4711,15 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="71" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="39">
+      <c r="G6" s="28">
         <v>1</v>
       </c>
       <c r="H6" s="8"/>
@@ -4753,25 +4744,25 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="41">
+      <c r="AD6" s="59">
         <v>38</v>
       </c>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="81" t="s">
+      <c r="AF6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
     </row>
     <row r="7" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="72"/>
-      <c r="G7" s="39"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="8"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -4794,654 +4785,654 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="41"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
+      <c r="AD7" s="59"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
     </row>
     <row r="8" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="39">
+      <c r="G8" s="28">
         <v>2</v>
       </c>
       <c r="H8" s="8"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="41">
+      <c r="AD8" s="59">
         <v>37</v>
       </c>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="55" t="s">
+      <c r="AF8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="28" t="s">
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="73"/>
-      <c r="G9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="8"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="41"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="29"/>
+      <c r="AD9" s="59"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="63"/>
     </row>
     <row r="10" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="74" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="39">
+      <c r="G10" s="28">
         <v>3</v>
       </c>
       <c r="H10" s="8"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="41">
+      <c r="AD10" s="59">
         <v>36</v>
       </c>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="55" t="s">
+      <c r="AF10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="66" t="s">
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="75"/>
-      <c r="G11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="8"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="41"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="67"/>
+      <c r="AD11" s="59"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="58"/>
     </row>
     <row r="12" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="39">
+      <c r="G12" s="28">
         <v>4</v>
       </c>
       <c r="H12" s="8"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="41">
+      <c r="AD12" s="59">
         <v>35</v>
       </c>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="55" t="s">
+      <c r="AF12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="37" t="s">
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="77"/>
-      <c r="G13" s="39"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="8"/>
       <c r="AC13" s="9"/>
-      <c r="AD13" s="41"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="38"/>
+      <c r="AD13" s="59"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="56"/>
     </row>
     <row r="14" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="39">
+      <c r="G14" s="28">
         <v>5</v>
       </c>
       <c r="H14" s="8"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="41">
+      <c r="AD14" s="59">
         <v>34</v>
       </c>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="55" t="s">
+      <c r="AF14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="37" t="s">
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="77"/>
-      <c r="G15" s="39"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="32"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="8"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="41"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="38"/>
+      <c r="AD15" s="59"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="56"/>
     </row>
     <row r="16" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="36" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="39">
+      <c r="G16" s="28">
         <v>6</v>
       </c>
       <c r="H16" s="8"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="41">
+      <c r="AD16" s="59">
         <v>33</v>
       </c>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="55" t="s">
+      <c r="AF16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="66" t="s">
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="77"/>
-      <c r="G17" s="39"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="32"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="8"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="41"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="67"/>
+      <c r="AD17" s="59"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="58"/>
     </row>
     <row r="18" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="32" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="39">
+      <c r="G18" s="28">
         <v>7</v>
       </c>
       <c r="H18" s="8"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="41">
+      <c r="AD18" s="59">
         <v>32</v>
       </c>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="56" t="s">
+      <c r="AF18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="61"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="86"/>
     </row>
     <row r="19" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="78"/>
-      <c r="G19" s="39"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="33"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="8"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="41"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="64"/>
+      <c r="AD19" s="59"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="89"/>
     </row>
     <row r="20" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="45" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39">
+      <c r="G20" s="28">
         <v>8</v>
       </c>
       <c r="H20" s="8"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="41">
+      <c r="AD20" s="59">
         <v>31</v>
       </c>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="55" t="s">
+      <c r="AF20" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="28" t="s">
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="62" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="80"/>
-      <c r="G21" s="39"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="46"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="8"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="41"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="29"/>
+      <c r="AD21" s="59"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="63"/>
     </row>
     <row r="22" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="46" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="39">
+      <c r="G22" s="28">
         <v>9</v>
       </c>
       <c r="H22" s="8"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="41">
+      <c r="AD22" s="59">
         <v>30</v>
       </c>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="55" t="s">
+      <c r="AF22" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="28" t="s">
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="62" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="80"/>
-      <c r="G23" s="39"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="46"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="8"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="41"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="29"/>
+      <c r="AD23" s="59"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="63"/>
     </row>
     <row r="24" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="39">
+      <c r="G24" s="28">
         <v>10</v>
       </c>
       <c r="H24" s="8"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="41">
+      <c r="AD24" s="59">
         <v>29</v>
       </c>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="55" t="s">
+      <c r="AF24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="28" t="s">
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="80"/>
-      <c r="G25" s="39"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="46"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="8"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="41"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="29"/>
+      <c r="AD25" s="59"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="63"/>
     </row>
     <row r="26" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="39">
+      <c r="G26" s="28">
         <v>11</v>
       </c>
       <c r="H26" s="8"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="41">
+      <c r="AD26" s="59">
         <v>28</v>
       </c>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="55" t="s">
+      <c r="AF26" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="37" t="s">
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="80"/>
-      <c r="G27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="46"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="8"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="41"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="38"/>
+      <c r="AD27" s="59"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="56"/>
     </row>
     <row r="28" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="46" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="39">
+      <c r="G28" s="28">
         <v>12</v>
       </c>
       <c r="H28" s="8"/>
       <c r="AC28" s="9"/>
-      <c r="AD28" s="41">
+      <c r="AD28" s="59">
         <v>27</v>
       </c>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="55" t="s">
+      <c r="AF28" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="37" t="s">
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="80"/>
-      <c r="G29" s="39"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="46"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="8"/>
       <c r="AC29" s="9"/>
-      <c r="AD29" s="41"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="38"/>
+      <c r="AD29" s="59"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="56"/>
     </row>
     <row r="30" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="46" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="39">
+      <c r="G30" s="28">
         <v>13</v>
       </c>
       <c r="H30" s="8"/>
       <c r="AC30" s="9"/>
-      <c r="AD30" s="41">
+      <c r="AD30" s="59">
         <v>26</v>
       </c>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="55" t="s">
+      <c r="AF30" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AG30" s="65" t="s">
+      <c r="AG30" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AH30" s="36" t="s">
+      <c r="AH30" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="68" t="s">
+      <c r="AI30" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="AJ30" s="57"/>
+      <c r="AJ30" s="42"/>
     </row>
     <row r="31" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="80"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="46"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="8"/>
       <c r="AC31" s="9"/>
-      <c r="AD31" s="41"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="58"/>
+      <c r="AD31" s="59"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="40"/>
     </row>
     <row r="32" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="46" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="39">
+      <c r="G32" s="28">
         <v>14</v>
       </c>
       <c r="H32" s="8"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="41">
+      <c r="AD32" s="59">
         <v>25</v>
       </c>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="55" t="s">
+      <c r="AF32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AG32" s="65" t="s">
+      <c r="AG32" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AH32" s="36" t="s">
+      <c r="AH32" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AI32" s="68" t="s">
+      <c r="AI32" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="AJ32" s="57"/>
+      <c r="AJ32" s="42"/>
     </row>
     <row r="33" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="80"/>
-      <c r="G33" s="39"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="46"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="8"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="41"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="58"/>
+      <c r="AD33" s="59"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="40"/>
     </row>
     <row r="34" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
@@ -5479,63 +5470,63 @@
       <c r="AI34" s="11"/>
     </row>
     <row r="35" spans="1:36" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="I35" s="47">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="I35" s="50">
         <v>15</v>
       </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47">
+      <c r="J35" s="50"/>
+      <c r="K35" s="50">
         <v>16</v>
       </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="45">
+      <c r="L35" s="51"/>
+      <c r="M35" s="48">
         <v>17</v>
       </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45">
+      <c r="N35" s="48"/>
+      <c r="O35" s="48">
         <v>18</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45">
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48">
         <v>19</v>
       </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45">
+      <c r="R35" s="48"/>
+      <c r="S35" s="48">
         <v>20</v>
       </c>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45">
+      <c r="T35" s="48"/>
+      <c r="U35" s="48">
         <v>21</v>
       </c>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45">
+      <c r="V35" s="48"/>
+      <c r="W35" s="48">
         <v>22</v>
       </c>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="46">
+      <c r="X35" s="48"/>
+      <c r="Y35" s="49">
         <v>23</v>
       </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47">
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50">
         <v>24</v>
       </c>
-      <c r="AB35" s="47"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
+      <c r="AB35" s="50"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
     </row>
     <row r="36" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="I36" s="2"/>
       <c r="K36" s="2"/>
       <c r="M36" s="18"/>
@@ -5546,18 +5537,18 @@
       <c r="W36" s="18"/>
       <c r="Y36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
     </row>
     <row r="37" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="83" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="68" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1"/>
@@ -5577,26 +5568,26 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="88" t="s">
+      <c r="AF37" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AG37" s="31" t="s">
+      <c r="AG37" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AH37" s="34" t="s">
+      <c r="AH37" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="AI37" s="68" t="s">
+      <c r="AI37" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="AJ37" s="23"/>
+      <c r="AJ37" s="42"/>
     </row>
     <row r="38" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="84"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="69"/>
       <c r="K38" s="2"/>
       <c r="M38" s="18"/>
       <c r="O38" s="18"/>
@@ -5605,24 +5596,24 @@
       <c r="U38" s="18"/>
       <c r="W38" s="18"/>
       <c r="Y38" s="2"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="35" t="s">
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="24"/>
+      <c r="AI38" s="77"/>
+      <c r="AJ38" s="40"/>
     </row>
     <row r="39" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="31" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="70" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="1"/>
@@ -5644,44 +5635,44 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="88" t="s">
+      <c r="AF39" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AG39" s="31" t="s">
+      <c r="AG39" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AH39" s="32" t="s">
+      <c r="AH39" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="AI39" s="68" t="s">
+      <c r="AI39" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="AJ39" s="23"/>
+      <c r="AJ39" s="42"/>
     </row>
     <row r="40" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="86"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="71"/>
       <c r="M40" s="18"/>
       <c r="O40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="S40" s="18"/>
       <c r="U40" s="18"/>
       <c r="W40" s="18"/>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="24"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="40"/>
     </row>
     <row r="41" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="87" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="15"/>
@@ -5705,38 +5696,38 @@
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="17"/>
-      <c r="AF41" s="87" t="s">
+      <c r="AF41" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="23"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="28" t="s">
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="62" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="87"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="47"/>
       <c r="O42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="S42" s="18"/>
       <c r="U42" s="18"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="29"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="63"/>
     </row>
     <row r="43" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="87" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="47" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="15"/>
@@ -5762,34 +5753,34 @@
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="17"/>
-      <c r="AF43" s="87" t="s">
+      <c r="AF43" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="42"/>
+      <c r="AJ43" s="42"/>
     </row>
     <row r="44" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="87"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="47"/>
       <c r="Q44" s="18"/>
       <c r="S44" s="18"/>
-      <c r="AF44" s="87"/>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
     </row>
     <row r="45" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="87" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="15"/>
@@ -5817,29 +5808,238 @@
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="17"/>
-      <c r="AF45" s="87" t="s">
+      <c r="AF45" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
     </row>
     <row r="46" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="87"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="40"/>
     </row>
     <row r="47" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="I2:AB3"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AG18:AJ19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ43:AJ44"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AG45:AG46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="AF45:AF46"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AF41:AF42"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AD18:AD19"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
@@ -5864,215 +6064,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="AF45:AF46"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AF41:AF42"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AG45:AG46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ43:AJ44"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="I2:AB3"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AG18:AJ19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AD14:AD15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6088,8 +6079,8 @@
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/assets/ESP32-wroom-32-pinout.xlsx
+++ b/assets/ESP32-wroom-32-pinout.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\github\Components\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9D6D6-4217-4257-80FD-CFA1375B99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622A6CA-D023-4441-8778-00E7A85B69E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A48B1AA1-19B1-4E85-B700-14E81BEF0614}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A48B1AA1-19B1-4E85-B700-14E81BEF0614}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-Module" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32-Socket" sheetId="3" r:id="rId2"/>
+    <sheet name="ESP32-C3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1105,6 +1106,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,9 +1269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,157 +1301,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4316,6 +4317,1539 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113790</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113790</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67CA7A2-15AA-493A-8DAB-37CEF1C6349D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2293110" y="198120"/>
+          <a:ext cx="4160520" cy="4358640"/>
+          <a:chOff x="1905000" y="190500"/>
+          <a:chExt cx="4000500" cy="6096000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Flowchart: Process 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B88B60D-2121-C235-0CDE-5CFDAF76FC43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1905000" y="190500"/>
+            <a:ext cx="4000500" cy="6096000"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Flowchart: Process 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C468104-217F-074F-F54C-B2660956C8F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1905000" y="190500"/>
+            <a:ext cx="4000500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="76200">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="44" name="Picture 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB14A35-63D2-8B4E-1A39-B9EEFD4EC343}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4350630" y="4474750"/>
+            <a:ext cx="1384616" cy="1645306"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="38100" dir="7800000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="40000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="contrasting" dir="t">
+              <a:rot lat="0" lon="0" rev="4200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="381000" h="114300" prst="relaxedInset"/>
+            <a:contourClr>
+              <a:srgbClr val="969696"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="TextBox 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DE0AB3-8C90-43BA-A076-29EE27F22A97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1905000" y="1143000"/>
+            <a:ext cx="4000500" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-CA" sz="2800" b="1">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </a:rPr>
+              <a:t>ESP32 - C3 WROOM</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793EBFB1-AA56-458F-9A65-D5A4D608F65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="1895475"/>
+          <a:ext cx="3619500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1200" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>21840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2119</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="87" name="Group 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8B91B5-E664-1CE6-154D-39D099689B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="205740" y="5763260"/>
+          <a:ext cx="8335260" cy="1371179"/>
+          <a:chOff x="205740" y="5763260"/>
+          <a:chExt cx="8335260" cy="1371179"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="71" name="Group 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E4897C-9CBC-6793-BD39-E8A5CB5C03B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="205740" y="5763260"/>
+            <a:ext cx="1370580" cy="1371179"/>
+            <a:chOff x="236220" y="8582660"/>
+            <a:chExt cx="1370580" cy="1371179"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Flowchart: Connector 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4E5F02-993D-4056-BDC1-C87A07B1959F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1200" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>EN</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="Flowchart: Connector 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26CBCA8-2EAF-4DC4-8421-65491E5F2DBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Flowchart: Connector 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423FA365-7288-4A96-B612-01506E8DA953}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Flowchart: Connector 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0979B66F-F939-4B30-9301-615BB8265AF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="Group 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEFCB90-6C07-446F-B5C9-6DE6455D1DC4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2527300" y="5763260"/>
+            <a:ext cx="1370580" cy="1371179"/>
+            <a:chOff x="236220" y="8582660"/>
+            <a:chExt cx="1370580" cy="1371179"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="Flowchart: Connector 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F06FF2-67D9-8442-C12D-EACF5F0BB79C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="Flowchart: Connector 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F238546-E93C-0FC3-16BE-799FDCFCC885}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="Flowchart: Connector 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2A6127-1CEA-8DE0-821E-EBC028384F61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="Flowchart: Connector 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F29ADF-3C67-BA82-DBD3-AD4D890DAC04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="Group 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B24097E-7172-4872-88E9-2BC79963A8FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4848860" y="5763260"/>
+            <a:ext cx="1370580" cy="1371179"/>
+            <a:chOff x="236220" y="8582660"/>
+            <a:chExt cx="1370580" cy="1371179"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="Flowchart: Connector 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B38918-81D3-2686-387F-A86386DE7B68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>19</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="Flowchart: Connector 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC886BB5-937D-8E5D-A913-92CF2C874C64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>18</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="Flowchart: Connector 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8D87D5-B797-A37F-7BCA-60C6C1007F9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Rx</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="Flowchart: Connector 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B57DFB-A6CD-BF09-D04F-D66AC28DBDE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Tx</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="82" name="Group 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072D969D-6B56-4BB9-BC41-2482923788BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7170420" y="5763260"/>
+            <a:ext cx="1370580" cy="1371179"/>
+            <a:chOff x="236220" y="8582660"/>
+            <a:chExt cx="1370580" cy="1371179"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="Flowchart: Connector 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0E34E4-9A5E-203D-694C-EA07975E89D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="Flowchart: Connector 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA28DE8-2CA5-8205-C3A2-44E650934968}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="8582660"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="Flowchart: Connector 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4115B5-EAFC-27E3-0113-FE4B65420C87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236220" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="Flowchart: Connector 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4B5B4B-75BA-06F7-DC33-32ECC5985139}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1043940" y="9390979"/>
+              <a:ext cx="562860" cy="562860"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartConnector">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1500" b="1">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4623,7 +6157,7 @@
   </sheetPr>
   <dimension ref="A2:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -4640,50 +6174,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
     </row>
     <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4711,15 +6245,15 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="23" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="73" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="28">
+      <c r="G6" s="53">
         <v>1</v>
       </c>
       <c r="H6" s="8"/>
@@ -4744,25 +6278,25 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="59">
+      <c r="AD6" s="37">
         <v>38</v>
       </c>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="60" t="s">
+      <c r="AF6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
     </row>
     <row r="7" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="74"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="8"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -4785,654 +6319,654 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="59"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
+      <c r="AD7" s="37"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
     </row>
     <row r="8" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="25" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="75" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="28">
+      <c r="G8" s="53">
         <v>2</v>
       </c>
       <c r="H8" s="8"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="59">
+      <c r="AD8" s="37">
         <v>37</v>
       </c>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="54" t="s">
+      <c r="AF8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="62" t="s">
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="75"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="8"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="59"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="63"/>
+      <c r="AD9" s="37"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="42"/>
     </row>
     <row r="10" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="26" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="76" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="28">
+      <c r="G10" s="53">
         <v>3</v>
       </c>
       <c r="H10" s="8"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="59">
+      <c r="AD10" s="37">
         <v>36</v>
       </c>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="54" t="s">
+      <c r="AF10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="57" t="s">
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="77"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="8"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="59"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="58"/>
+      <c r="AD11" s="37"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="83" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="28">
+      <c r="G12" s="53">
         <v>4</v>
       </c>
       <c r="H12" s="8"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="59">
+      <c r="AD12" s="37">
         <v>35</v>
       </c>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="54" t="s">
+      <c r="AF12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="55" t="s">
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="66"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="32"/>
-      <c r="G13" s="28"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="81"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="8"/>
       <c r="AC13" s="9"/>
-      <c r="AD13" s="59"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="56"/>
+      <c r="AD13" s="37"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="51"/>
     </row>
     <row r="14" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="39" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="81" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="28">
+      <c r="G14" s="53">
         <v>5</v>
       </c>
       <c r="H14" s="8"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="59">
+      <c r="AD14" s="37">
         <v>34</v>
       </c>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="54" t="s">
+      <c r="AF14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="55" t="s">
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="32"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="81"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="8"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="59"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="56"/>
+      <c r="AD15" s="37"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="51"/>
     </row>
     <row r="16" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="65"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="39" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="81" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="28">
+      <c r="G16" s="53">
         <v>6</v>
       </c>
       <c r="H16" s="8"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="59">
+      <c r="AD16" s="37">
         <v>33</v>
       </c>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="54" t="s">
+      <c r="AF16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="57" t="s">
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="28"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="81"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="8"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="59"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="58"/>
+      <c r="AD17" s="37"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="36"/>
     </row>
     <row r="18" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="81" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="28">
+      <c r="G18" s="53">
         <v>7</v>
       </c>
       <c r="H18" s="8"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="59">
+      <c r="AD18" s="37">
         <v>32</v>
       </c>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="64" t="s">
+      <c r="AF18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="86"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="28"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="82"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="8"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="59"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="89"/>
+      <c r="AD19" s="37"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="33"/>
     </row>
     <row r="20" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="66" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="28">
+      <c r="G20" s="53">
         <v>8</v>
       </c>
       <c r="H20" s="8"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="59">
+      <c r="AD20" s="37">
         <v>31</v>
       </c>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="54" t="s">
+      <c r="AF20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="62" t="s">
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="46"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="8"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="59"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="63"/>
+      <c r="AD21" s="37"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="42"/>
     </row>
     <row r="22" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="77" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="52" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="28">
+      <c r="G22" s="53">
         <v>9</v>
       </c>
       <c r="H22" s="8"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="59">
+      <c r="AD22" s="37">
         <v>30</v>
       </c>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="54" t="s">
+      <c r="AF22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="62" t="s">
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="46"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="8"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="59"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="63"/>
+      <c r="AD23" s="37"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="42"/>
     </row>
     <row r="24" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="28">
+      <c r="G24" s="53">
         <v>10</v>
       </c>
       <c r="H24" s="8"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="59">
+      <c r="AD24" s="37">
         <v>29</v>
       </c>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="54" t="s">
+      <c r="AF24" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="62" t="s">
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="52"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="8"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="59"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="63"/>
+      <c r="AD25" s="37"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="42"/>
     </row>
     <row r="26" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="28">
+      <c r="G26" s="53">
         <v>11</v>
       </c>
       <c r="H26" s="8"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="59">
+      <c r="AD26" s="37">
         <v>28</v>
       </c>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="54" t="s">
+      <c r="AF26" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="55" t="s">
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="46"/>
-      <c r="G27" s="28"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="52"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="8"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="59"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="56"/>
+      <c r="AD27" s="37"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="51"/>
     </row>
     <row r="28" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="28">
+      <c r="G28" s="53">
         <v>12</v>
       </c>
       <c r="H28" s="8"/>
       <c r="AC28" s="9"/>
-      <c r="AD28" s="59">
+      <c r="AD28" s="37">
         <v>27</v>
       </c>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="54" t="s">
+      <c r="AF28" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="55" t="s">
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="46"/>
-      <c r="G29" s="28"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="52"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="8"/>
       <c r="AC29" s="9"/>
-      <c r="AD29" s="59"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="40"/>
-      <c r="AH29" s="40"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="56"/>
+      <c r="AD29" s="37"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="51"/>
     </row>
     <row r="30" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="52" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="28">
+      <c r="G30" s="53">
         <v>13</v>
       </c>
       <c r="H30" s="8"/>
       <c r="AC30" s="9"/>
-      <c r="AD30" s="59">
+      <c r="AD30" s="37">
         <v>26</v>
       </c>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="54" t="s">
+      <c r="AF30" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AG30" s="67" t="s">
+      <c r="AG30" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AH30" s="39" t="s">
+      <c r="AH30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AI30" s="76" t="s">
+      <c r="AI30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AJ30" s="42"/>
+      <c r="AJ30" s="23"/>
     </row>
     <row r="31" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="46"/>
-      <c r="G31" s="28"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="8"/>
       <c r="AC31" s="9"/>
-      <c r="AD31" s="59"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="40"/>
+      <c r="AD31" s="37"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="24"/>
     </row>
     <row r="32" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="52" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="28">
+      <c r="G32" s="53">
         <v>14</v>
       </c>
       <c r="H32" s="8"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="59">
+      <c r="AD32" s="37">
         <v>25</v>
       </c>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="54" t="s">
+      <c r="AF32" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AG32" s="67" t="s">
+      <c r="AG32" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AH32" s="39" t="s">
+      <c r="AH32" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="AI32" s="76" t="s">
+      <c r="AI32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AJ32" s="42"/>
+      <c r="AJ32" s="23"/>
     </row>
     <row r="33" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="46"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="8"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="59"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="40"/>
+      <c r="AD33" s="37"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="24"/>
     </row>
     <row r="34" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
@@ -5470,63 +7004,63 @@
       <c r="AI34" s="11"/>
     </row>
     <row r="35" spans="1:36" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="I35" s="50">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="I35" s="69">
         <v>15</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50">
+      <c r="J35" s="69"/>
+      <c r="K35" s="69">
         <v>16</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="48">
+      <c r="L35" s="70"/>
+      <c r="M35" s="67">
         <v>17</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48">
+      <c r="N35" s="67"/>
+      <c r="O35" s="67">
         <v>18</v>
       </c>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48">
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67">
         <v>19</v>
       </c>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48">
+      <c r="R35" s="67"/>
+      <c r="S35" s="67">
         <v>20</v>
       </c>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48">
+      <c r="T35" s="67"/>
+      <c r="U35" s="67">
         <v>21</v>
       </c>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48">
+      <c r="V35" s="67"/>
+      <c r="W35" s="67">
         <v>22</v>
       </c>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="49">
+      <c r="X35" s="67"/>
+      <c r="Y35" s="68">
         <v>23</v>
       </c>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50">
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69">
         <v>24</v>
       </c>
-      <c r="AB35" s="50"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
+      <c r="AB35" s="69"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
     </row>
     <row r="36" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="I36" s="2"/>
       <c r="K36" s="2"/>
       <c r="M36" s="18"/>
@@ -5537,18 +7071,18 @@
       <c r="W36" s="18"/>
       <c r="Y36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="40"/>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
     </row>
     <row r="37" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="68" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="59" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1"/>
@@ -5568,26 +7102,26 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="52" t="s">
+      <c r="AF37" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AG37" s="67" t="s">
+      <c r="AG37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AH37" s="80" t="s">
+      <c r="AH37" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AI37" s="76" t="s">
+      <c r="AI37" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AJ37" s="42"/>
+      <c r="AJ37" s="23"/>
     </row>
     <row r="38" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="69"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="60"/>
       <c r="K38" s="2"/>
       <c r="M38" s="18"/>
       <c r="O38" s="18"/>
@@ -5596,24 +7130,24 @@
       <c r="U38" s="18"/>
       <c r="W38" s="18"/>
       <c r="Y38" s="2"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="81" t="s">
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AI38" s="77"/>
-      <c r="AJ38" s="40"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="24"/>
     </row>
     <row r="39" spans="1:36" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="67" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="61" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="1"/>
@@ -5635,44 +7169,44 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="52" t="s">
+      <c r="AF39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AG39" s="67" t="s">
+      <c r="AG39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AH39" s="79" t="s">
+      <c r="AH39" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AI39" s="76" t="s">
+      <c r="AI39" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AJ39" s="42"/>
+      <c r="AJ39" s="23"/>
     </row>
     <row r="40" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="63"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="71"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="62"/>
       <c r="M40" s="18"/>
       <c r="O40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="S40" s="18"/>
       <c r="U40" s="18"/>
       <c r="W40" s="18"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="73"/>
-      <c r="AI40" s="77"/>
-      <c r="AJ40" s="40"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="24"/>
     </row>
     <row r="41" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="47" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="15"/>
@@ -5696,38 +7230,38 @@
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="17"/>
-      <c r="AF41" s="47" t="s">
+      <c r="AF41" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
-      <c r="AJ41" s="62" t="s">
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="47"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="48"/>
       <c r="O42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="S42" s="18"/>
       <c r="U42" s="18"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="63"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="42"/>
     </row>
     <row r="43" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="47" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="15"/>
@@ -5753,34 +7287,34 @@
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="17"/>
-      <c r="AF43" s="47" t="s">
+      <c r="AF43" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42"/>
-      <c r="AJ43" s="42"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
     </row>
     <row r="44" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="47"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="48"/>
       <c r="Q44" s="18"/>
       <c r="S44" s="18"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="40"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
     </row>
     <row r="45" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="47" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="15"/>
@@ -5808,29 +7342,238 @@
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="17"/>
-      <c r="AF45" s="47" t="s">
+      <c r="AF45" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
     </row>
     <row r="46" spans="1:36" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="40"/>
-      <c r="AH46" s="40"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
     </row>
     <row r="47" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="AF45:AF46"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AF41:AF42"/>
+    <mergeCell ref="AF39:AF40"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AF35:AF36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AG45:AG46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ43:AJ44"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AJ39:AJ40"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AI30:AI31"/>
     <mergeCell ref="AJ37:AJ38"/>
     <mergeCell ref="AJ30:AJ31"/>
     <mergeCell ref="AI32:AI33"/>
@@ -5855,215 +7598,6 @@
     <mergeCell ref="AG28:AG29"/>
     <mergeCell ref="AJ10:AJ11"/>
     <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="AJ41:AJ42"/>
-    <mergeCell ref="AJ43:AJ44"/>
-    <mergeCell ref="AJ45:AJ46"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AJ39:AJ40"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AI45:AI46"/>
-    <mergeCell ref="AF35:AF36"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AG45:AG46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="AF45:AF46"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AF41:AF42"/>
-    <mergeCell ref="AF39:AF40"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6079,7 +7613,7 @@
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
@@ -6100,4 +7634,34 @@
   <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C3512-3167-47CA-887B-5A8C58CE0618}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BO19" sqref="BO19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>